--- a/tests/multialgorithm/fixtures/validation/cases/semantic/00022/00022-wc_lang.xlsx
+++ b/tests/multialgorithm/fixtures/validation/cases/semantic/00022/00022-wc_lang.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="23700" windowHeight="6600" tabRatio="989" firstSheet="3" activeTab="12"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11980" windowHeight="3960" tabRatio="989" firstSheet="7" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -22,8 +22,8 @@
     <sheet name="Functions" sheetId="8" r:id="rId8"/>
     <sheet name="Reactions" sheetId="9" r:id="rId9"/>
     <sheet name="Rate laws" sheetId="10" r:id="rId10"/>
-    <sheet name="Biomass components" sheetId="11" r:id="rId11"/>
-    <sheet name="Biomass reactions" sheetId="12" r:id="rId12"/>
+    <sheet name="Biomass components" sheetId="11" state="hidden" r:id="rId11"/>
+    <sheet name="Biomass reactions" sheetId="12" state="hidden" r:id="rId12"/>
     <sheet name="Parameters" sheetId="13" r:id="rId13"/>
     <sheet name="Stop conditions" sheetId="14" r:id="rId14"/>
     <sheet name="References" sheetId="15" r:id="rId15"/>
@@ -899,7 +899,7 @@
   <sheetPr codeName="Sheet10" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView zoomScale="161" zoomScaleNormal="161" zoomScalePageLayoutView="161" workbookViewId="0">
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" zoomScalePageLayoutView="120" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -1060,8 +1060,8 @@
   <sheetPr codeName="Sheet13" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showRowColHeaders="0" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1416,8 +1416,8 @@
   <sheetPr codeName="Sheet3" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView zoomScale="155" zoomScaleNormal="155" zoomScalePageLayoutView="155" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1490,7 +1490,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1556,8 +1556,8 @@
   <sheetPr codeName="Sheet5" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView zoomScale="147" zoomScaleNormal="147" zoomScalePageLayoutView="147" workbookViewId="0">
-      <selection activeCell="I3" sqref="I2:I3"/>
+    <sheetView topLeftCell="C1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1665,8 +1665,8 @@
   <sheetPr codeName="Sheet6" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView showRowColHeaders="0" zoomScale="130" zoomScaleNormal="130" zoomScalePageLayoutView="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
